--- a/testdata/excel2json/excel2json_files/json_header.xlsx
+++ b/testdata/excel2json/excel2json_files/json_header.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/dsp-tools-uv/testdata/excel2json/new_excel2json_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/excel2json/excel2json_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49374469-FE6E-6648-BE08-4EE49C65E73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83221E2-5985-0C47-A087-C03B186B35A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22740" yWindow="1760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" r:id="rId1"/>
     <sheet name="Project" sheetId="2" r:id="rId2"/>
-    <sheet name="Description" sheetId="3" r:id="rId3"/>
-    <sheet name="Keywords" sheetId="4" r:id="rId4"/>
-    <sheet name="Users" sheetId="5" r:id="rId5"/>
+    <sheet name="Licenses" sheetId="6" r:id="rId3"/>
+    <sheet name="Description" sheetId="3" r:id="rId4"/>
+    <sheet name="Keywords" sheetId="4" r:id="rId5"/>
+    <sheet name="Users" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="66">
   <si>
     <t>prefixes</t>
   </si>
@@ -236,12 +236,18 @@
   <si>
     <t>Liddell</t>
   </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,6 +297,13 @@
       <name val="aptos narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="aptos narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,7 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,6 +339,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1639,7 +1653,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6692,11 +6706,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C122E61D-3B6A-5D40-8424-BB5A5A22EA3B}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="126" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="D1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6706,7 +6747,9 @@
     <col min="3" max="3" width="28" style="2" customWidth="1"/>
     <col min="4" max="4" width="15" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>
-    <col min="6" max="26" width="10.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="26" width="10.5" style="2" customWidth="1"/>
     <col min="27" max="16384" width="11.1640625" style="2"/>
   </cols>
   <sheetData>
@@ -13753,7 +13796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -14847,7 +14890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>

--- a/testdata/excel2json/excel2json_files/json_header.xlsx
+++ b/testdata/excel2json/excel2json_files/json_header.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/dsp-tools-uv/testdata/excel2json/new_excel2json_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/excel2json/excel2json_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49374469-FE6E-6648-BE08-4EE49C65E73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C94B76-A7A8-B346-81E0-F60693166D58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36060" yWindow="6120" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" r:id="rId1"/>
     <sheet name="Project" sheetId="2" r:id="rId2"/>
-    <sheet name="Description" sheetId="3" r:id="rId3"/>
-    <sheet name="Keywords" sheetId="4" r:id="rId4"/>
-    <sheet name="Users" sheetId="5" r:id="rId5"/>
+    <sheet name="Licenses" sheetId="6" r:id="rId3"/>
+    <sheet name="Description" sheetId="3" r:id="rId4"/>
+    <sheet name="Keywords" sheetId="4" r:id="rId5"/>
+    <sheet name="Users" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="75">
   <si>
     <t>prefixes</t>
   </si>
@@ -236,12 +236,45 @@
   <si>
     <t>Liddell</t>
   </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>disabled</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/cc-by-4.0</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/cc-by-sa-4.0</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/cc-by-nc-4.0</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/cc-by-nc-sa-4.0</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/cc-by-nd-4.0</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/cc-by-nc-nd-4.0</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/ai-generated</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/unknown</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/public-domain</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,6 +324,13 @@
       <name val="aptos narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="aptos narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,6 +366,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6692,10 +6733,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F55C69EE-995D-444B-8C1B-B1B476E1F614}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -13753,7 +13867,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
@@ -14847,7 +14961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>

--- a/testdata/excel2json/excel2json_files/json_header.xlsx
+++ b/testdata/excel2json/excel2json_files/json_header.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/dsp-tools-uv/testdata/excel2json/new_excel2json_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/excel2json/excel2json_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49374469-FE6E-6648-BE08-4EE49C65E73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF219CC-AB21-634E-8D9A-0A73E55BB755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16180" yWindow="760" windowWidth="18380" windowHeight="20480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" r:id="rId1"/>
     <sheet name="Project" sheetId="2" r:id="rId2"/>
     <sheet name="Description" sheetId="3" r:id="rId3"/>
     <sheet name="Keywords" sheetId="4" r:id="rId4"/>
-    <sheet name="Users" sheetId="5" r:id="rId5"/>
+    <sheet name="Licenses" sheetId="6" r:id="rId5"/>
+    <sheet name="Users" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>prefixes</t>
   </si>
@@ -236,12 +237,42 @@
   <si>
     <t>Liddell</t>
   </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/cc-by-4.0</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/cc-by-sa-4.0</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/cc-by-nc-4.0</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/cc-by-nc-sa-4.0</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/cc-by-nd-4.0</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/cc-by-nc-nd-4.0</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/ai-generated</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/unknown</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/public-domain</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -291,6 +322,11 @@
       <name val="aptos narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11.3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -313,7 +349,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -326,6 +362,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6695,7 +6732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -14848,6 +14885,74 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9A5C05-F1E2-894D-AD02-D94E0EF1D3A6}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>

--- a/testdata/excel2json/excel2json_files/json_header.xlsx
+++ b/testdata/excel2json/excel2json_files/json_header.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/excel2json/excel2json_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/dsp-tools-uv/testdata/excel2json/new_excel2json_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF219CC-AB21-634E-8D9A-0A73E55BB755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49374469-FE6E-6648-BE08-4EE49C65E73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16180" yWindow="760" windowWidth="18380" windowHeight="20480" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" r:id="rId1"/>
     <sheet name="Project" sheetId="2" r:id="rId2"/>
     <sheet name="Description" sheetId="3" r:id="rId3"/>
     <sheet name="Keywords" sheetId="4" r:id="rId4"/>
-    <sheet name="Licenses" sheetId="6" r:id="rId5"/>
-    <sheet name="Users" sheetId="5" r:id="rId6"/>
+    <sheet name="Users" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>prefixes</t>
   </si>
@@ -237,42 +236,12 @@
   <si>
     <t>Liddell</t>
   </si>
-  <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>http://rdfh.ch/licenses/cc-by-4.0</t>
-  </si>
-  <si>
-    <t>http://rdfh.ch/licenses/cc-by-sa-4.0</t>
-  </si>
-  <si>
-    <t>http://rdfh.ch/licenses/cc-by-nc-4.0</t>
-  </si>
-  <si>
-    <t>http://rdfh.ch/licenses/cc-by-nc-sa-4.0</t>
-  </si>
-  <si>
-    <t>http://rdfh.ch/licenses/cc-by-nd-4.0</t>
-  </si>
-  <si>
-    <t>http://rdfh.ch/licenses/cc-by-nc-nd-4.0</t>
-  </si>
-  <si>
-    <t>http://rdfh.ch/licenses/ai-generated</t>
-  </si>
-  <si>
-    <t>http://rdfh.ch/licenses/unknown</t>
-  </si>
-  <si>
-    <t>http://rdfh.ch/licenses/public-domain</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,11 +291,6 @@
       <name val="aptos narrow"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11.3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -349,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -362,7 +326,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6732,7 +6695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -14885,74 +14848,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9A5C05-F1E2-894D-AD02-D94E0EF1D3A6}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="31.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>

--- a/testdata/excel2json/excel2json_files/json_header.xlsx
+++ b/testdata/excel2json/excel2json_files/json_header.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/dsp-tools-uv/testdata/excel2json/new_excel2json_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/excel2json/excel2json_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49374469-FE6E-6648-BE08-4EE49C65E73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E088F55F-4529-DB4E-AF36-237B38E07512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7360" yWindow="6200" windowWidth="34560" windowHeight="21580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" r:id="rId1"/>
     <sheet name="Project" sheetId="2" r:id="rId2"/>
     <sheet name="Description" sheetId="3" r:id="rId3"/>
     <sheet name="Keywords" sheetId="4" r:id="rId4"/>
-    <sheet name="Users" sheetId="5" r:id="rId5"/>
+    <sheet name="Licenses" sheetId="6" r:id="rId5"/>
+    <sheet name="Users" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>prefixes</t>
   </si>
@@ -235,6 +235,15 @@
   </si>
   <si>
     <t>Liddell</t>
+  </si>
+  <si>
+    <t>enabled</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/cc-by-4.0</t>
+  </si>
+  <si>
+    <t>http://rdfh.ch/licenses/public-domain</t>
   </si>
 </sst>
 </file>
@@ -6695,7 +6704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -14848,6 +14857,40 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C50B8C-3569-F046-A9DA-389E78D99920}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>

--- a/testdata/excel2json/excel2json_files/json_header.xlsx
+++ b/testdata/excel2json/excel2json_files/json_header.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nussbaum/Desktop/Cloned_GitHub_repos/dsp-tools/testdata/excel2json/excel2json_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/excel2json/excel2json_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E15175-1391-0D4F-B348-810824ABCAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16800375-CA07-7947-A2D2-756B61DB4339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="760" windowWidth="23340" windowHeight="10860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23580" yWindow="10920" windowWidth="23340" windowHeight="10860" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prefixes" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>username</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Liddell</t>
-  </si>
-  <si>
-    <t>alice4322</t>
   </si>
   <si>
     <t>en</t>
@@ -110,9 +107,6 @@
   </si>
   <si>
     <t>Rabbit</t>
-  </si>
-  <si>
-    <t>alice8711</t>
   </si>
   <si>
     <t>fr</t>
@@ -676,10 +670,10 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -708,42 +702,42 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1752,7 +1746,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -1767,16 +1761,16 @@
   <sheetData>
     <row r="1" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -1803,16 +1797,16 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6831,19 +6825,19 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -6869,13 +6863,13 @@
     </row>
     <row r="2" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -13888,7 +13882,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -13923,52 +13917,52 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -14980,17 +14974,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -15005,7 +14999,9 @@
   </sheetPr>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15072,60 +15068,56 @@
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
